--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H2">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I2">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J2">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N2">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P2">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q2">
-        <v>29.82454212549169</v>
+        <v>47.32444316300733</v>
       </c>
       <c r="R2">
-        <v>29.82454212549169</v>
+        <v>425.919988467066</v>
       </c>
       <c r="S2">
-        <v>0.04180152926905797</v>
+        <v>0.06086063894261227</v>
       </c>
       <c r="T2">
-        <v>0.04180152926905797</v>
+        <v>0.06086063894261228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H3">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I3">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J3">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N3">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P3">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q3">
-        <v>151.6909431451066</v>
+        <v>155.8883904717313</v>
       </c>
       <c r="R3">
-        <v>151.6909431451066</v>
+        <v>1402.995514245582</v>
       </c>
       <c r="S3">
-        <v>0.2126072337691134</v>
+        <v>0.2004770983816072</v>
       </c>
       <c r="T3">
-        <v>0.2126072337691134</v>
+        <v>0.2004770983816072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H4">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I4">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J4">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N4">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P4">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q4">
-        <v>170.9372378859806</v>
+        <v>186.0371743563233</v>
       </c>
       <c r="R4">
-        <v>170.9372378859806</v>
+        <v>1674.33456920691</v>
       </c>
       <c r="S4">
-        <v>0.2395824862154508</v>
+        <v>0.2392493295569186</v>
       </c>
       <c r="T4">
-        <v>0.2395824862154508</v>
+        <v>0.2392493295569186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.9994614741421</v>
+        <v>3.081251</v>
       </c>
       <c r="H5">
-        <v>2.9994614741421</v>
+        <v>9.243753</v>
       </c>
       <c r="I5">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="J5">
-        <v>0.6007765394147616</v>
+        <v>0.6013642694204734</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N5">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P5">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q5">
-        <v>76.18913567239274</v>
+        <v>78.36304509055066</v>
       </c>
       <c r="R5">
-        <v>76.18913567239274</v>
+        <v>705.267405814956</v>
       </c>
       <c r="S5">
-        <v>0.1067852901611394</v>
+        <v>0.1007772025393353</v>
       </c>
       <c r="T5">
-        <v>0.1067852901611394</v>
+        <v>0.1007772025393353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H6">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I6">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J6">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N6">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P6">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q6">
-        <v>6.384472616106319</v>
+        <v>10.25964412997067</v>
       </c>
       <c r="R6">
-        <v>6.384472616106319</v>
+        <v>92.33679716973597</v>
       </c>
       <c r="S6">
-        <v>0.008948359301099168</v>
+        <v>0.01319420695396423</v>
       </c>
       <c r="T6">
-        <v>0.008948359301099168</v>
+        <v>0.01319420695396423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H7">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I7">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J7">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N7">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P7">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q7">
-        <v>32.472138836073</v>
+        <v>33.79563082707466</v>
       </c>
       <c r="R7">
-        <v>32.472138836073</v>
+        <v>304.1606774436719</v>
       </c>
       <c r="S7">
-        <v>0.04551235208485676</v>
+        <v>0.04346218461609266</v>
       </c>
       <c r="T7">
-        <v>0.04551235208485676</v>
+        <v>0.04346218461609266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H8">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I8">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J8">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N8">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P8">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q8">
-        <v>36.59214983968184</v>
+        <v>40.33169914470667</v>
       </c>
       <c r="R8">
-        <v>36.59214983968184</v>
+        <v>362.9852923023599</v>
       </c>
       <c r="S8">
-        <v>0.05128688367134483</v>
+        <v>0.05186776252460555</v>
       </c>
       <c r="T8">
-        <v>0.05128688367134483</v>
+        <v>0.05186776252460555</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.642087967826947</v>
+        <v>0.6679959999999999</v>
       </c>
       <c r="H9">
-        <v>0.642087967826947</v>
+        <v>2.003988</v>
       </c>
       <c r="I9">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="J9">
-        <v>0.1286068818140969</v>
+        <v>0.1303720230892577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N9">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P9">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q9">
-        <v>16.30963681851265</v>
+        <v>16.98861944979733</v>
       </c>
       <c r="R9">
-        <v>16.30963681851265</v>
+        <v>152.897575048176</v>
       </c>
       <c r="S9">
-        <v>0.02285928675679618</v>
+        <v>0.02184786899459531</v>
       </c>
       <c r="T9">
-        <v>0.02285928675679618</v>
+        <v>0.02184786899459531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H10">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I10">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J10">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.94329894969631</v>
+        <v>15.35884066666667</v>
       </c>
       <c r="N10">
-        <v>9.94329894969631</v>
+        <v>46.076522</v>
       </c>
       <c r="O10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="P10">
-        <v>0.06957916384314602</v>
+        <v>0.1012042817263867</v>
       </c>
       <c r="Q10">
-        <v>13.43430547617358</v>
+        <v>21.11104903198733</v>
       </c>
       <c r="R10">
-        <v>13.43430547617358</v>
+        <v>189.999441287886</v>
       </c>
       <c r="S10">
-        <v>0.01882927527298888</v>
+        <v>0.02714943582981015</v>
       </c>
       <c r="T10">
-        <v>0.01882927527298888</v>
+        <v>0.02714943582981016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H11">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I11">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J11">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.572725955246</v>
+        <v>50.59256466666667</v>
       </c>
       <c r="N11">
-        <v>50.572725955246</v>
+        <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="P11">
-        <v>0.3538873771206544</v>
+        <v>0.3333704853712116</v>
       </c>
       <c r="Q11">
-        <v>68.32837398158867</v>
+        <v>69.54054257819134</v>
       </c>
       <c r="R11">
-        <v>68.32837398158867</v>
+        <v>625.864883203722</v>
       </c>
       <c r="S11">
-        <v>0.09576779126668421</v>
+        <v>0.08943120237351164</v>
       </c>
       <c r="T11">
-        <v>0.09576779126668421</v>
+        <v>0.08943120237351167</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H12">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I12">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J12">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>56.9893093675663</v>
+        <v>60.37715666666667</v>
       </c>
       <c r="N12">
-        <v>56.9893093675663</v>
+        <v>181.13147</v>
       </c>
       <c r="O12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="P12">
-        <v>0.398788019333839</v>
+        <v>0.397844271305776</v>
       </c>
       <c r="Q12">
-        <v>76.99776450384506</v>
+        <v>82.98966975862334</v>
       </c>
       <c r="R12">
-        <v>76.99776450384506</v>
+        <v>746.90702782761</v>
       </c>
       <c r="S12">
-        <v>0.1079186494470433</v>
+        <v>0.1067271792242518</v>
       </c>
       <c r="T12">
-        <v>0.1079186494470433</v>
+        <v>0.1067271792242519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.35109137763417</v>
+        <v>1.374521</v>
       </c>
       <c r="H13">
-        <v>1.35109137763417</v>
+        <v>4.123563</v>
       </c>
       <c r="I13">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902688</v>
       </c>
       <c r="J13">
-        <v>0.2706165787711414</v>
+        <v>0.2682637074902689</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.4009382448175</v>
+        <v>25.43221733333333</v>
       </c>
       <c r="N13">
-        <v>25.4009382448175</v>
+        <v>76.29665199999999</v>
       </c>
       <c r="O13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966257</v>
       </c>
       <c r="P13">
-        <v>0.1777454397023606</v>
+        <v>0.1675809615966258</v>
       </c>
       <c r="Q13">
-        <v>34.31898864639095</v>
+        <v>34.95711680123066</v>
       </c>
       <c r="R13">
-        <v>34.31898864639095</v>
+        <v>314.6140512110759</v>
       </c>
       <c r="S13">
-        <v>0.04810086278442504</v>
+        <v>0.04495589006269519</v>
       </c>
       <c r="T13">
-        <v>0.04810086278442504</v>
+        <v>0.0449558900626952</v>
       </c>
     </row>
   </sheetData>
